--- a/Eucalyptis_2.xlsx
+++ b/Eucalyptis_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raymondtremblay/Dropbox/GitHub_Dropbox_Drive/GitHub/Lab_Ecol_General_A/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FED11F-5296-8347-83AF-003F8F9DA6BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EF6E53-D722-B24E-9C92-D9C217524B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41960" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41140" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
